--- a/ITcoach/company_data/销售预测/2020年7月份备货计划20200619.xlsx
+++ b/ITcoach/company_data/销售预测/2020年7月份备货计划20200619.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Some Tasks\订单管理\生产计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python\ITcoach\company_data\销售预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F0C6E0-A617-4121-BE4A-2850B6597119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D3A256-988E-41ED-ADAE-4E36291ADB9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="销货单_2019-07-01开始" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数据整合!$A$2:$R$67</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1151,6 +1151,21 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1203,21 +1218,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -20727,7 +20727,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FA30795-4B0F-40BF-A202-BEE7C9EE40A2}" name="数据透视表2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FA30795-4B0F-40BF-A202-BEE7C9EE40A2}" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:O104" firstHeaderRow="1" firstDataRow="3" firstDataCol="3"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -67410,9 +67410,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q67" sqref="Q67:R67"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -67594,7 +67594,7 @@
       <c r="C4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="96">
         <f>SUM(E4:E7)</f>
         <v>467</v>
       </c>
@@ -67633,7 +67633,7 @@
       <c r="C5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="92"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="58">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -67668,7 +67668,7 @@
       <c r="Q5" s="32">
         <v>10</v>
       </c>
-      <c r="R5" s="98">
+      <c r="R5" s="103">
         <f>SUM(Q5:Q12)</f>
         <v>140</v>
       </c>
@@ -67683,7 +67683,7 @@
       <c r="C6" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="93"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -67722,7 +67722,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="80"/>
-      <c r="R6" s="96"/>
+      <c r="R6" s="101"/>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40">
@@ -67734,7 +67734,7 @@
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="94"/>
+      <c r="D7" s="99"/>
       <c r="E7" s="58">
         <f t="shared" si="0"/>
         <v>322</v>
@@ -67775,7 +67775,7 @@
       <c r="Q7" s="32">
         <v>60</v>
       </c>
-      <c r="R7" s="98"/>
+      <c r="R7" s="103"/>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="82">
@@ -67787,7 +67787,7 @@
       <c r="C8" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="105">
         <f>SUM(E8:E9)</f>
         <v>177</v>
       </c>
@@ -67829,7 +67829,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="82"/>
-      <c r="R8" s="96"/>
+      <c r="R8" s="101"/>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51">
@@ -67841,7 +67841,7 @@
       <c r="C9" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="56">
         <f t="shared" si="0"/>
         <v>142</v>
@@ -67882,7 +67882,7 @@
       <c r="Q9" s="33">
         <v>55</v>
       </c>
-      <c r="R9" s="98"/>
+      <c r="R9" s="103"/>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="82">
@@ -67894,7 +67894,7 @@
       <c r="C10" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="102"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -67913,7 +67913,7 @@
       <c r="O10" s="82"/>
       <c r="P10" s="82"/>
       <c r="Q10" s="82"/>
-      <c r="R10" s="96"/>
+      <c r="R10" s="101"/>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51">
@@ -67964,7 +67964,7 @@
       <c r="Q11" s="33">
         <v>10</v>
       </c>
-      <c r="R11" s="98"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="51">
@@ -68016,7 +68016,7 @@
       <c r="Q12" s="33">
         <v>5</v>
       </c>
-      <c r="R12" s="99"/>
+      <c r="R12" s="104"/>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
@@ -68070,7 +68070,7 @@
       <c r="Q13" s="34">
         <v>25</v>
       </c>
-      <c r="R13" s="107">
+      <c r="R13" s="112">
         <f>SUM(Q13:Q25)</f>
         <v>72</v>
       </c>
@@ -68085,7 +68085,7 @@
       <c r="C14" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="112">
+      <c r="D14" s="94">
         <f>SUM(E14:E18)</f>
         <v>24</v>
       </c>
@@ -68109,7 +68109,7 @@
       <c r="O14" s="84"/>
       <c r="P14" s="84"/>
       <c r="Q14" s="84"/>
-      <c r="R14" s="108"/>
+      <c r="R14" s="113"/>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
@@ -68121,7 +68121,7 @@
       <c r="C15" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="112"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -68142,7 +68142,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="108"/>
+      <c r="R15" s="113"/>
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
@@ -68154,7 +68154,7 @@
       <c r="C16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="112"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -68173,7 +68173,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="108"/>
+      <c r="R16" s="113"/>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
@@ -68185,7 +68185,7 @@
       <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="112"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -68210,7 +68210,7 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="108"/>
+      <c r="R17" s="113"/>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
@@ -68222,7 +68222,7 @@
       <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="112"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -68243,7 +68243,7 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="108"/>
+      <c r="R18" s="113"/>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
@@ -68255,7 +68255,7 @@
       <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="103">
+      <c r="D19" s="108">
         <f>SUM(E19:E22)</f>
         <v>182</v>
       </c>
@@ -68297,7 +68297,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="10"/>
-      <c r="R19" s="108"/>
+      <c r="R19" s="113"/>
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
@@ -68309,7 +68309,7 @@
       <c r="C20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="104"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -68348,7 +68348,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="10"/>
-      <c r="R20" s="108"/>
+      <c r="R20" s="113"/>
     </row>
     <row r="21" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46">
@@ -68360,7 +68360,7 @@
       <c r="C21" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="105"/>
+      <c r="D21" s="110"/>
       <c r="E21" s="63">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -68401,7 +68401,7 @@
       <c r="Q21" s="35">
         <v>10</v>
       </c>
-      <c r="R21" s="107"/>
+      <c r="R21" s="112"/>
     </row>
     <row r="22" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46">
@@ -68413,7 +68413,7 @@
       <c r="C22" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="106"/>
+      <c r="D22" s="111"/>
       <c r="E22" s="63">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -68452,7 +68452,7 @@
       <c r="Q22" s="35">
         <v>30</v>
       </c>
-      <c r="R22" s="107"/>
+      <c r="R22" s="112"/>
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="86">
@@ -68486,7 +68486,7 @@
       <c r="O23" s="86"/>
       <c r="P23" s="86"/>
       <c r="Q23" s="86"/>
-      <c r="R23" s="108"/>
+      <c r="R23" s="113"/>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
@@ -68528,7 +68528,7 @@
       </c>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="108"/>
+      <c r="R24" s="113"/>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
@@ -68584,7 +68584,7 @@
       <c r="Q25" s="90">
         <v>7</v>
       </c>
-      <c r="R25" s="107"/>
+      <c r="R25" s="112"/>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
@@ -68596,7 +68596,7 @@
       <c r="C26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="112">
+      <c r="D26" s="94">
         <f>SUM(E26:E30)</f>
         <v>312</v>
       </c>
@@ -68631,7 +68631,7 @@
       <c r="C27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="112"/>
+      <c r="D27" s="94"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
         <v>149</v>
@@ -68675,7 +68675,7 @@
       <c r="C28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="112"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -68709,7 +68709,7 @@
       <c r="C29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="112"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
         <v>111</v>
@@ -68745,7 +68745,7 @@
       <c r="C30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="112"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -68938,7 +68938,7 @@
       <c r="Q34" s="36">
         <v>30</v>
       </c>
-      <c r="R34" s="95">
+      <c r="R34" s="100">
         <f>SUM(Q34:Q42)</f>
         <v>92</v>
       </c>
@@ -68979,7 +68979,7 @@
       <c r="O35" s="82"/>
       <c r="P35" s="82"/>
       <c r="Q35" s="82"/>
-      <c r="R35" s="96"/>
+      <c r="R35" s="101"/>
     </row>
     <row r="36" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48">
@@ -69035,7 +69035,7 @@
       <c r="Q36" s="36">
         <v>35</v>
       </c>
-      <c r="R36" s="95"/>
+      <c r="R36" s="100"/>
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="82">
@@ -69071,7 +69071,7 @@
       <c r="O37" s="82"/>
       <c r="P37" s="82"/>
       <c r="Q37" s="82"/>
-      <c r="R37" s="96"/>
+      <c r="R37" s="101"/>
     </row>
     <row r="38" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="48">
@@ -69121,7 +69121,7 @@
       <c r="Q38" s="36">
         <v>5</v>
       </c>
-      <c r="R38" s="95"/>
+      <c r="R38" s="100"/>
     </row>
     <row r="39" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82">
@@ -69155,7 +69155,7 @@
       <c r="O39" s="82"/>
       <c r="P39" s="82"/>
       <c r="Q39" s="82"/>
-      <c r="R39" s="96"/>
+      <c r="R39" s="101"/>
     </row>
     <row r="40" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
@@ -69191,7 +69191,7 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="96"/>
+      <c r="R40" s="101"/>
     </row>
     <row r="41" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="48">
@@ -69247,7 +69247,7 @@
       <c r="Q41" s="36">
         <v>15</v>
       </c>
-      <c r="R41" s="95"/>
+      <c r="R41" s="100"/>
     </row>
     <row r="42" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="48">
@@ -69303,7 +69303,7 @@
       <c r="Q42" s="36">
         <v>7</v>
       </c>
-      <c r="R42" s="95"/>
+      <c r="R42" s="100"/>
     </row>
     <row r="43" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="82">
@@ -69390,7 +69390,7 @@
       <c r="Q44" s="55">
         <v>10</v>
       </c>
-      <c r="R44" s="97">
+      <c r="R44" s="102">
         <f>SUM(Q44:Q45)</f>
         <v>15</v>
       </c>
@@ -69437,7 +69437,7 @@
       <c r="Q45" s="55">
         <v>5</v>
       </c>
-      <c r="R45" s="97"/>
+      <c r="R45" s="102"/>
     </row>
     <row r="46" spans="1:18" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="82">
@@ -69568,7 +69568,7 @@
       <c r="C49" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="113">
+      <c r="D49" s="95">
         <f>SUM(E49:E60)</f>
         <v>62</v>
       </c>
@@ -69601,7 +69601,7 @@
       <c r="C50" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="113"/>
+      <c r="D50" s="95"/>
       <c r="E50" s="21">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -69635,7 +69635,7 @@
       <c r="C51" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="113"/>
+      <c r="D51" s="95"/>
       <c r="E51" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -69667,7 +69667,7 @@
       <c r="C52" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="113"/>
+      <c r="D52" s="95"/>
       <c r="E52" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -69707,7 +69707,7 @@
       <c r="C53" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="113"/>
+      <c r="D53" s="95"/>
       <c r="E53" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -69737,7 +69737,7 @@
       <c r="C54" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="113"/>
+      <c r="D54" s="95"/>
       <c r="E54" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -69767,7 +69767,7 @@
       <c r="C55" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="113"/>
+      <c r="D55" s="95"/>
       <c r="E55" s="21">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -69799,7 +69799,7 @@
       <c r="C56" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="113"/>
+      <c r="D56" s="95"/>
       <c r="E56" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -69839,7 +69839,7 @@
       <c r="C57" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="113"/>
+      <c r="D57" s="95"/>
       <c r="E57" s="21">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -69873,7 +69873,7 @@
       <c r="C58" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="113"/>
+      <c r="D58" s="95"/>
       <c r="E58" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -69911,7 +69911,7 @@
       <c r="C59" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="113"/>
+      <c r="D59" s="95"/>
       <c r="E59" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -69941,7 +69941,7 @@
       <c r="C60" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="113"/>
+      <c r="D60" s="95"/>
       <c r="E60" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -69973,7 +69973,7 @@
       <c r="C61" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="111">
+      <c r="D61" s="93">
         <f>SUM(E61:E66)</f>
         <v>23</v>
       </c>
@@ -70006,7 +70006,7 @@
       <c r="C62" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="111"/>
+      <c r="D62" s="93"/>
       <c r="E62" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -70036,7 +70036,7 @@
       <c r="C63" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="111"/>
+      <c r="D63" s="93"/>
       <c r="E63" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -70066,7 +70066,7 @@
       <c r="C64" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="111"/>
+      <c r="D64" s="93"/>
       <c r="E64" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -70096,7 +70096,7 @@
       <c r="C65" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="111"/>
+      <c r="D65" s="93"/>
       <c r="E65" s="17">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -70128,7 +70128,7 @@
       <c r="C66" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="111"/>
+      <c r="D66" s="93"/>
       <c r="E66" s="17">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -70162,7 +70162,7 @@
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
     </row>
-    <row r="67" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="88"/>
       <c r="B67" s="43"/>
       <c r="C67" s="88"/>
@@ -70179,23 +70179,23 @@
       <c r="N67" s="88"/>
       <c r="O67" s="88"/>
       <c r="P67" s="88"/>
-      <c r="Q67" s="109"/>
-      <c r="R67" s="110"/>
+      <c r="Q67" s="91"/>
+      <c r="R67" s="92"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:R67" xr:uid="{7AE49E03-77B7-48A1-8F57-E25763F1293A}">
     <filterColumn colId="16">
       <filters>
         <filter val="10"/>
-        <filter val="12"/>
+        <filter val="15"/>
         <filter val="25"/>
         <filter val="30"/>
-        <filter val="322"/>
+        <filter val="319"/>
         <filter val="35"/>
         <filter val="5"/>
         <filter val="55"/>
         <filter val="60"/>
-        <filter val="月度汇总金额"/>
+        <filter val="7"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -70204,11 +70204,6 @@
     <sortCondition ref="C13:C67"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="D61:D66"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D49:D60"/>
-    <mergeCell ref="D26:D30"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="R34:R42"/>
     <mergeCell ref="R44:R45"/>
@@ -70216,9 +70211,14 @@
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="R13:R25"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D49:D60"/>
+    <mergeCell ref="D26:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>